--- a/FH5_all_cars_info_v3.xlsx
+++ b/FH5_all_cars_info_v3.xlsx
@@ -6930,7 +6930,7 @@
     <col min="9" max="9" style="6" width="12.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>100</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>106</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>111</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>111</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>111</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>111</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
         <v>111</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
         <v>111</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
         <v>111</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
         <v>111</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>111</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
         <v>111</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
         <v>111</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
         <v>111</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
         <v>162</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
         <v>162</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
         <v>162</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
         <v>162</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
         <v>162</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3" t="s">
         <v>162</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
         <v>162</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
         <v>162</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
         <v>162</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
         <v>162</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
         <v>162</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
         <v>162</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
         <v>162</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
         <v>162</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
         <v>162</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
         <v>162</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
         <v>162</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
         <v>162</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
         <v>162</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
         <v>162</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
         <v>162</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
         <v>162</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
         <v>162</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
         <v>223</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
         <v>228</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
         <v>243</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
         <v>248</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3" t="s">
         <v>248</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
         <v>248</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3" t="s">
         <v>248</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
         <v>248</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3" t="s">
         <v>248</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3" t="s">
         <v>248</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
         <v>265</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3" t="s">
         <v>265</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
         <v>265</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
         <v>265</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
         <v>265</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
         <v>265</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
         <v>265</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
         <v>265</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
         <v>265</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
         <v>265</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
         <v>265</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
         <v>265</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
         <v>265</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
         <v>265</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
         <v>265</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
         <v>265</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
         <v>265</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
         <v>265</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
         <v>265</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
         <v>265</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
         <v>265</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
         <v>265</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
         <v>265</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
         <v>265</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
         <v>265</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
         <v>265</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
         <v>265</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
         <v>265</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
         <v>265</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
         <v>265</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
         <v>265</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
         <v>265</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
         <v>265</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
         <v>265</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
         <v>265</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
         <v>265</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
         <v>265</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
         <v>354</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
         <v>354</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
         <v>354</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
         <v>354</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
         <v>354</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
         <v>366</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
         <v>366</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
         <v>373</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
         <v>373</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
         <v>373</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
         <v>373</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
         <v>373</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
         <v>373</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
         <v>373</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
         <v>391</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
         <v>400</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
         <v>404</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
         <v>404</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
         <v>404</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
         <v>404</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
         <v>404</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
         <v>404</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
         <v>404</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
         <v>404</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
         <v>404</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
         <v>404</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
         <v>404</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
         <v>404</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3" t="s">
         <v>404</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
         <v>404</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
         <v>404</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3" t="s">
         <v>404</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
         <v>404</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
         <v>404</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
         <v>404</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
         <v>404</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
         <v>404</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
         <v>404</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
         <v>404</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
         <v>404</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
         <v>404</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3" t="s">
         <v>404</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
         <v>404</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3" t="s">
         <v>404</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
         <v>404</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
         <v>404</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
         <v>404</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
         <v>404</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
         <v>404</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
         <v>404</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
         <v>404</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
         <v>404</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
         <v>487</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
         <v>491</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
         <v>491</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
         <v>491</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
         <v>503</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
         <v>507</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
         <v>507</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
         <v>507</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
         <v>507</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
         <v>507</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
         <v>507</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
         <v>507</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3" t="s">
         <v>507</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
         <v>528</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
         <v>533</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
         <v>533</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
         <v>533</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
         <v>533</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
         <v>533</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
         <v>533</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
         <v>533</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
         <v>533</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
         <v>533</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3" t="s">
         <v>533</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3" t="s">
         <v>533</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3" t="s">
         <v>533</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3" t="s">
         <v>533</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3" t="s">
         <v>533</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3" t="s">
         <v>533</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3" t="s">
         <v>533</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3" t="s">
         <v>533</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3" t="s">
         <v>571</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3" t="s">
         <v>576</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3" t="s">
         <v>580</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3" t="s">
         <v>589</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3" t="s">
         <v>589</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="3" t="s">
         <v>595</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3" t="s">
         <v>595</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3" t="s">
         <v>595</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3" t="s">
         <v>595</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3" t="s">
         <v>595</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3" t="s">
         <v>595</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="3" t="s">
         <v>595</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3" t="s">
         <v>595</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3" t="s">
         <v>595</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3" t="s">
         <v>595</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3" t="s">
         <v>631</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3" t="s">
         <v>631</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3" t="s">
         <v>631</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3" t="s">
         <v>631</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3" t="s">
         <v>631</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3" t="s">
         <v>631</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3" t="s">
         <v>631</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="3" t="s">
         <v>631</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3" t="s">
         <v>631</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3" t="s">
         <v>631</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3" t="s">
         <v>631</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3" t="s">
         <v>631</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3" t="s">
         <v>631</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="3" t="s">
         <v>631</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3" t="s">
         <v>631</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3" t="s">
         <v>631</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3" t="s">
         <v>631</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3" t="s">
         <v>631</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3" t="s">
         <v>631</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3" t="s">
         <v>631</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3" t="s">
         <v>631</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3" t="s">
         <v>631</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3" t="s">
         <v>631</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3" t="s">
         <v>631</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3" t="s">
         <v>631</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3" t="s">
         <v>631</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3" t="s">
         <v>631</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3" t="s">
         <v>631</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3" t="s">
         <v>631</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3" t="s">
         <v>631</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3" t="s">
         <v>631</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3" t="s">
         <v>631</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3" t="s">
         <v>631</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3" t="s">
         <v>631</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3" t="s">
         <v>631</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3" t="s">
         <v>631</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3" t="s">
         <v>631</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3" t="s">
         <v>631</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3" t="s">
         <v>631</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3" t="s">
         <v>631</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3" t="s">
         <v>631</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3" t="s">
         <v>631</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3" t="s">
         <v>631</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3" t="s">
         <v>722</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3" t="s">
         <v>722</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="3" t="s">
         <v>728</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="3" t="s">
         <v>728</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="3" t="s">
         <v>728</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="3" t="s">
         <v>728</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="3" t="s">
         <v>728</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="3" t="s">
         <v>728</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="3" t="s">
         <v>728</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="3" t="s">
         <v>728</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="3" t="s">
         <v>728</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="3" t="s">
         <v>728</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="3" t="s">
         <v>728</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="3" t="s">
         <v>728</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="3" t="s">
         <v>728</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="3" t="s">
         <v>728</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="3" t="s">
         <v>728</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="3" t="s">
         <v>728</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="3" t="s">
         <v>728</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="3" t="s">
         <v>728</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="3" t="s">
         <v>728</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="3" t="s">
         <v>728</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="3" t="s">
         <v>728</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="3" t="s">
         <v>728</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="3" t="s">
         <v>728</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="3" t="s">
         <v>728</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="3" t="s">
         <v>728</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="3" t="s">
         <v>728</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="3" t="s">
         <v>728</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="3" t="s">
         <v>728</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="3" t="s">
         <v>728</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="3" t="s">
         <v>728</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="3" t="s">
         <v>728</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="3" t="s">
         <v>728</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="3" t="s">
         <v>728</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="3" t="s">
         <v>728</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="3" t="s">
         <v>728</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="3" t="s">
         <v>728</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="3" t="s">
         <v>728</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="3" t="s">
         <v>728</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="3" t="s">
         <v>728</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="3" t="s">
         <v>728</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="3" t="s">
         <v>728</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="3" t="s">
         <v>728</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="3" t="s">
         <v>728</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="3" t="s">
         <v>728</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="3" t="s">
         <v>728</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="3" t="s">
         <v>728</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="3" t="s">
         <v>728</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="3" t="s">
         <v>728</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="3" t="s">
         <v>728</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="3" t="s">
         <v>728</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="3" t="s">
         <v>728</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="3" t="s">
         <v>728</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="3" t="s">
         <v>728</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="3" t="s">
         <v>728</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="3" t="s">
         <v>728</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="3" t="s">
         <v>728</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="3" t="s">
         <v>728</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="3" t="s">
         <v>728</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="3" t="s">
         <v>728</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="3" t="s">
         <v>728</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="3" t="s">
         <v>728</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="3" t="s">
         <v>728</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="3" t="s">
         <v>728</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="3" t="s">
         <v>728</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="3" t="s">
         <v>728</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="3" t="s">
         <v>728</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="3" t="s">
         <v>728</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="3" t="s">
         <v>728</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="3" t="s">
         <v>728</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="3" t="s">
         <v>728</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="3" t="s">
         <v>728</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="3" t="s">
         <v>728</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="3" t="s">
         <v>728</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="3" t="s">
         <v>728</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="3" t="s">
         <v>728</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="3" t="s">
         <v>728</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="3" t="s">
         <v>728</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="3" t="s">
         <v>728</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="3" t="s">
         <v>728</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="3" t="s">
         <v>897</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="3" t="s">
         <v>897</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="3" t="s">
         <v>897</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="3" t="s">
         <v>897</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="3" t="s">
         <v>897</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="3" t="s">
         <v>897</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="3" t="s">
         <v>897</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="3" t="s">
         <v>897</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="3" t="s">
         <v>897</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="3" t="s">
         <v>897</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="3" t="s">
         <v>897</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="3" t="s">
         <v>897</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="3" t="s">
         <v>897</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="3" t="s">
         <v>897</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="3" t="s">
         <v>897</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="3" t="s">
         <v>943</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="3" t="s">
         <v>951</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="3" t="s">
         <v>951</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="3" t="s">
         <v>951</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="3" t="s">
         <v>965</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="3" t="s">
         <v>973</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="3" t="s">
         <v>973</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="3" t="s">
         <v>973</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="3" t="s">
         <v>983</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="3" t="s">
         <v>983</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="3" t="s">
         <v>983</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="3" t="s">
         <v>991</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="3" t="s">
         <v>991</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="3" t="s">
         <v>991</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="3" t="s">
         <v>991</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="3" t="s">
         <v>991</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="3" t="s">
         <v>991</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="3" t="s">
         <v>991</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="3" t="s">
         <v>991</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="3" t="s">
         <v>991</v>
       </c>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="3" t="s">
         <v>991</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="3" t="s">
         <v>991</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="3" t="s">
         <v>991</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="3" t="s">
         <v>1025</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="3" t="s">
         <v>1056</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="3" t="s">
         <v>1080</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="3" t="s">
         <v>1080</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="3" t="s">
         <v>1086</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="3" t="s">
         <v>1090</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="3" t="s">
         <v>1107</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="3" t="s">
         <v>1111</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="3" t="s">
         <v>1115</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="3" t="s">
         <v>1115</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19371,7 +19371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19697,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="3" t="s">
         <v>1121</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="3" t="s">
         <v>1163</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="3" t="s">
         <v>1163</v>
       </c>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="3" t="s">
         <v>1163</v>
       </c>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="3" t="s">
         <v>1163</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="3" t="s">
         <v>1163</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="3" t="s">
         <v>1163</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="3" t="s">
         <v>1187</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="3" t="s">
         <v>1205</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
       <c r="A483" s="3" t="s">
         <v>1205</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
       <c r="A484" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
       <c r="A485" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
       <c r="A486" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
       <c r="A490" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
       <c r="A492" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
       <c r="A494" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
       <c r="A497" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
       <c r="A498" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
       <c r="A499" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
       <c r="A501" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
       <c r="A502" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
       <c r="A503" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
       <c r="A504" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
       <c r="A505" s="3" t="s">
         <v>1214</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
       <c r="A506" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
       <c r="A507" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
       <c r="A508" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
       <c r="A509" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
       <c r="A510" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
       <c r="A511" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
       <c r="A512" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
       <c r="A513" s="3" t="s">
         <v>1214</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
       <c r="A515" s="3" t="s">
         <v>1276</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
       <c r="A518" s="3" t="s">
         <v>1276</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
       <c r="A519" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
       <c r="A520" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
       <c r="A521" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
       <c r="A522" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
       <c r="A523" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
       <c r="A524" s="3" t="s">
         <v>1288</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
       <c r="A525" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
       <c r="A526" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
       <c r="A527" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
       <c r="A528" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
       <c r="A529" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
       <c r="A530" s="3" t="s">
         <v>1302</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
       <c r="A532" s="3" t="s">
         <v>1320</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
       <c r="A533" s="3" t="s">
         <v>1324</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
       <c r="A535" s="3" t="s">
         <v>1328</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
       <c r="A537" s="3" t="s">
         <v>1328</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
       <c r="A538" s="3" t="s">
         <v>1328</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
       <c r="A539" s="3" t="s">
         <v>1328</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
       <c r="A540" s="3" t="s">
         <v>1328</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
       <c r="A542" s="3" t="s">
         <v>1328</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
       <c r="A544" s="3" t="s">
         <v>1328</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
       <c r="A546" s="3" t="s">
         <v>1356</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
       <c r="A547" s="3" t="s">
         <v>1356</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
       <c r="A548" s="3" t="s">
         <v>1356</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
       <c r="A549" s="3" t="s">
         <v>1356</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
       <c r="A551" s="3" t="s">
         <v>1367</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
       <c r="A552" s="3" t="s">
         <v>1367</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
       <c r="A553" s="3" t="s">
         <v>1367</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
       <c r="A554" s="3" t="s">
         <v>1367</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
       <c r="A555" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
       <c r="A556" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
       <c r="A557" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
       <c r="A558" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
       <c r="A559" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
       <c r="A561" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
       <c r="A562" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
       <c r="A563" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
       <c r="A564" s="3" t="s">
         <v>1379</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
       <c r="A566" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
       <c r="A568" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
       <c r="A570" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
       <c r="A571" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
       <c r="A572" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
       <c r="A574" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
       <c r="A575" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
       <c r="A576" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
       <c r="A577" s="3" t="s">
         <v>1401</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
       <c r="A578" s="3" t="s">
         <v>1401</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
       <c r="A579" s="3" t="s">
         <v>1401</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
       <c r="A580" s="3" t="s">
         <v>1401</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
       <c r="A581" s="3" t="s">
         <v>1401</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
       <c r="A583" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
       <c r="A585" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
       <c r="A586" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
       <c r="A588" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
       <c r="A589" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
       <c r="A590" s="3" t="s">
         <v>1438</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
       <c r="A591" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
       <c r="A592" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
       <c r="A593" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
       <c r="A594" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
       <c r="A595" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
       <c r="A597" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
       <c r="A598" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
       <c r="A600" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
       <c r="A601" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
       <c r="A602" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
       <c r="A603" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
       <c r="A605" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
       <c r="A606" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
       <c r="A607" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23840,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
       <c r="A609" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
       <c r="A610" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
       <c r="A611" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
       <c r="A612" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
       <c r="A613" s="3" t="s">
         <v>1458</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
       <c r="A614" s="3" t="s">
         <v>1458</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
       <c r="A616" s="3" t="s">
         <v>1513</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
       <c r="A617" s="3" t="s">
         <v>1513</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
       <c r="A619" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
       <c r="A620" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
       <c r="A621" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
       <c r="A622" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
       <c r="A623" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
       <c r="A624" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
       <c r="A625" s="3" t="s">
         <v>1521</v>
       </c>
@@ -24315,7 +24315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
       <c r="A626" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
       <c r="A628" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
       <c r="A629" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
       <c r="A630" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
       <c r="A631" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
       <c r="A632" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
       <c r="A633" s="3" t="s">
         <v>1539</v>
       </c>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
       <c r="A635" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
       <c r="A637" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
       <c r="A638" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
       <c r="A639" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
       <c r="A640" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
       <c r="A641" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
       <c r="A644" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75">
       <c r="A645" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
       <c r="A646" s="3" t="s">
         <v>1557</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
       <c r="A647" s="3" t="s">
         <v>1587</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75">
       <c r="A649" s="3" t="s">
         <v>1593</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75">
       <c r="A650" s="3" t="s">
         <v>1593</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
       <c r="A651" s="3" t="s">
         <v>1593</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
       <c r="A652" s="3" t="s">
         <v>1593</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
       <c r="A653" s="3" t="s">
         <v>1603</v>
       </c>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75">
       <c r="A654" s="3" t="s">
         <v>1603</v>
       </c>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
       <c r="A655" s="3" t="s">
         <v>1609</v>
       </c>
@@ -25147,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75">
       <c r="A656" s="3" t="s">
         <v>1613</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
       <c r="A657" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75">
       <c r="A658" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75">
       <c r="A659" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75">
       <c r="A660" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
       <c r="A661" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
       <c r="A662" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
       <c r="A663" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75">
       <c r="A664" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25398,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75">
       <c r="A665" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75">
       <c r="A666" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75">
       <c r="A667" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75">
       <c r="A668" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75">
       <c r="A669" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75">
       <c r="A670" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75">
       <c r="A671" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
       <c r="A672" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75">
       <c r="A673" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
       <c r="A674" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75">
       <c r="A675" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75">
       <c r="A676" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25726,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75">
       <c r="A677" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
       <c r="A678" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
       <c r="A679" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75">
       <c r="A680" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75">
       <c r="A681" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75">
       <c r="A682" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75">
       <c r="A683" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
       <c r="A684" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75">
       <c r="A685" s="3" t="s">
         <v>1617</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
       <c r="A686" s="3" t="s">
         <v>1617</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75">
       <c r="A687" s="3" t="s">
         <v>1617</v>
       </c>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75">
       <c r="A688" s="3" t="s">
         <v>1617</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75">
       <c r="A689" s="3" t="s">
         <v>1617</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75">
       <c r="A690" s="3" t="s">
         <v>1685</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75">
       <c r="A691" s="3" t="s">
         <v>1685</v>
       </c>
@@ -26174,7 +26174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75">
       <c r="A693" s="3" t="s">
         <v>1695</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75">
       <c r="A694" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26230,7 +26230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75">
       <c r="A695" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75">
       <c r="A696" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26284,7 +26284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75">
       <c r="A697" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75">
       <c r="A698" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75">
       <c r="A699" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75">
       <c r="A700" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75">
       <c r="A701" s="3" t="s">
         <v>1715</v>
       </c>
@@ -26425,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75">
       <c r="A702" s="3" t="s">
         <v>1715</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75">
       <c r="A703" s="3" t="s">
         <v>1721</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75">
       <c r="A704" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75">
       <c r="A705" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75">
       <c r="A706" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75">
       <c r="A707" s="3" t="s">
         <v>1733</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75">
       <c r="A708" s="3" t="s">
         <v>1733</v>
       </c>
@@ -26620,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75">
       <c r="A709" s="3" t="s">
         <v>1733</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75">
       <c r="A710" s="3" t="s">
         <v>1733</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75">
       <c r="A711" s="3" t="s">
         <v>1743</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75">
       <c r="A712" s="3" t="s">
         <v>1743</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75">
       <c r="A713" s="3" t="s">
         <v>1743</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75">
       <c r="A714" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75">
       <c r="A715" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26819,7 +26819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75">
       <c r="A716" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75">
       <c r="A717" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75">
       <c r="A718" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75">
       <c r="A719" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75">
       <c r="A720" s="3" t="s">
         <v>1751</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75">
       <c r="A721" s="3" t="s">
         <v>1767</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75">
       <c r="A722" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75">
       <c r="A723" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75">
       <c r="A724" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27066,7 +27066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75">
       <c r="A725" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75">
       <c r="A726" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75">
       <c r="A727" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75">
       <c r="A728" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75">
       <c r="A729" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27205,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75">
       <c r="A730" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75">
       <c r="A731" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75">
       <c r="A732" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75">
       <c r="A733" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75">
       <c r="A734" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75">
       <c r="A735" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27371,7 +27371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75">
       <c r="A736" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75">
       <c r="A737" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75">
       <c r="A738" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75">
       <c r="A739" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75">
       <c r="A740" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75">
       <c r="A741" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75">
       <c r="A742" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27570,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75">
       <c r="A743" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75">
       <c r="A744" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75">
       <c r="A745" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75">
       <c r="A746" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75">
       <c r="A747" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27711,7 +27711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75">
       <c r="A748" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75">
       <c r="A749" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27767,7 +27767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75">
       <c r="A750" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75">
       <c r="A751" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75">
       <c r="A752" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75">
       <c r="A753" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75">
       <c r="A754" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75">
       <c r="A755" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75">
       <c r="A756" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75">
       <c r="A757" s="3" t="s">
         <v>1767</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75">
       <c r="A758" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75">
       <c r="A759" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75">
       <c r="A760" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75">
       <c r="A761" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75">
       <c r="A762" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75">
       <c r="A763" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75">
       <c r="A764" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28180,7 +28180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75">
       <c r="A765" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75">
       <c r="A766" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28236,7 +28236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75">
       <c r="A767" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75">
       <c r="A768" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75">
       <c r="A769" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75">
       <c r="A770" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75">
       <c r="A771" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75">
       <c r="A772" s="3" t="s">
         <v>1767</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75">
       <c r="A773" s="3" t="s">
         <v>1871</v>
       </c>
@@ -28431,7 +28431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75">
       <c r="A774" s="3" t="s">
         <v>1875</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75">
       <c r="A775" s="3" t="s">
         <v>1879</v>
       </c>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75">
       <c r="A776" s="3" t="s">
         <v>1883</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75">
       <c r="A777" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75">
       <c r="A778" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75">
       <c r="A779" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28593,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75">
       <c r="A780" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75">
       <c r="A781" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75">
       <c r="A782" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75">
       <c r="A783" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75">
       <c r="A784" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75">
       <c r="A785" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75">
       <c r="A786" s="3" t="s">
         <v>1887</v>
       </c>
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75">
       <c r="A787" s="3" t="s">
         <v>1908</v>
       </c>
@@ -28817,7 +28817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75">
       <c r="A788" s="3" t="s">
         <v>1908</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75">
       <c r="A789" s="3" t="s">
         <v>1914</v>
       </c>
@@ -28875,7 +28875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75">
       <c r="A790" s="3" t="s">
         <v>1914</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75">
       <c r="A791" s="3" t="s">
         <v>1920</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75">
       <c r="A792" s="3" t="s">
         <v>1920</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75">
       <c r="A793" s="3" t="s">
         <v>1926</v>
       </c>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75">
       <c r="A794" s="3" t="s">
         <v>1930</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75">
       <c r="A795" s="3" t="s">
         <v>1930</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75">
       <c r="A796" s="3" t="s">
         <v>1930</v>
       </c>
@@ -29072,7 +29072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75">
       <c r="A797" s="3" t="s">
         <v>1930</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75">
       <c r="A799" s="3" t="s">
         <v>1944</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75">
       <c r="A800" s="3" t="s">
         <v>1944</v>
       </c>
@@ -29184,7 +29184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75">
       <c r="A801" s="3" t="s">
         <v>1944</v>
       </c>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75">
       <c r="A802" s="3" t="s">
         <v>1952</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18.75">
       <c r="A803" s="3" t="s">
         <v>1952</v>
       </c>
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18.75">
       <c r="A804" s="3" t="s">
         <v>1952</v>
       </c>
@@ -29298,7 +29298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18.75">
       <c r="A805" s="3" t="s">
         <v>1960</v>
       </c>
@@ -29327,7 +29327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18.75">
       <c r="A806" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18.75">
       <c r="A807" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18.75">
       <c r="A808" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18.75">
       <c r="A809" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18.75">
       <c r="A810" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18.75">
       <c r="A811" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29497,7 +29497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18.75">
       <c r="A812" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18.75">
       <c r="A813" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18.75">
       <c r="A814" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18.75">
       <c r="A815" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29605,7 +29605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18.75">
       <c r="A816" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29632,7 +29632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18.75">
       <c r="A817" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29661,7 +29661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18.75">
       <c r="A818" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18.75">
       <c r="A819" s="3" t="s">
         <v>1964</v>
       </c>
@@ -29717,7 +29717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18.75">
       <c r="A820" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29744,7 +29744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18.75">
       <c r="A821" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29773,7 +29773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18.75">
       <c r="A822" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18.75">
       <c r="A823" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18.75">
       <c r="A824" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18.75">
       <c r="A825" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18.75">
       <c r="A826" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18.75">
       <c r="A827" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18.75">
       <c r="A828" s="3" t="s">
         <v>1994</v>
       </c>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18.75">
       <c r="A829" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18.75">
       <c r="A830" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30030,7 +30030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18.75">
       <c r="A831" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30059,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18.75">
       <c r="A832" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18.75">
       <c r="A833" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18.75">
       <c r="A834" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18.75">
       <c r="A835" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18.75">
       <c r="A836" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18.75">
       <c r="A837" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="18.75">
       <c r="A838" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30252,7 +30252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="18.75">
       <c r="A839" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="18.75">
       <c r="A840" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="18.75">
       <c r="A841" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30337,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="18.75">
       <c r="A842" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30364,7 +30364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="18.75">
       <c r="A843" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="18.75">
       <c r="A844" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="18.75">
       <c r="A845" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="18.75">
       <c r="A846" s="3" t="s">
         <v>1994</v>
       </c>
@@ -30476,7 +30476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="18.75">
       <c r="A847" s="3" t="s">
         <v>2049</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="18.75">
       <c r="A848" s="3" t="s">
         <v>2049</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="18.75">
       <c r="A849" s="3" t="s">
         <v>2049</v>
       </c>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="18.75">
       <c r="A850" s="3" t="s">
         <v>2057</v>
       </c>
@@ -30729,7 +30729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="18.75">
       <c r="A856" s="3" t="s">
         <v>2074</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="18.75">
       <c r="A857" s="3" t="s">
         <v>2074</v>
       </c>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="18.75">
       <c r="A858" s="3" t="s">
         <v>2074</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="18.75">
       <c r="A859" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="18.75">
       <c r="A860" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="18.75">
       <c r="A861" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="18.75">
       <c r="A862" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30920,7 +30920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="18.75">
       <c r="A863" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30947,7 +30947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="18.75">
       <c r="A864" s="3" t="s">
         <v>2082</v>
       </c>
@@ -30976,7 +30976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="18.75">
       <c r="A865" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31003,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="18.75">
       <c r="A866" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31030,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="18.75">
       <c r="A867" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="18.75">
       <c r="A868" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="18.75">
       <c r="A869" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="18.75">
       <c r="A870" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31138,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="18.75">
       <c r="A871" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31167,7 +31167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="18.75">
       <c r="A872" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31196,7 +31196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="18.75">
       <c r="A873" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="18.75">
       <c r="A874" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="18.75">
       <c r="A875" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="18.75">
       <c r="A876" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="18.75">
       <c r="A877" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="18.75">
       <c r="A878" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="18.75">
       <c r="A879" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="18.75">
       <c r="A880" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31422,7 +31422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="18.75">
       <c r="A881" s="3" t="s">
         <v>2082</v>
       </c>
@@ -31449,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="18.75">
       <c r="A882" s="3" t="s">
         <v>2130</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="18.75">
       <c r="A883" s="3" t="s">
         <v>2130</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="18.75">
       <c r="A884" s="3" t="s">
         <v>2130</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="18.75">
       <c r="A885" s="3" t="s">
         <v>2130</v>
       </c>
@@ -31559,7 +31559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="18.75">
       <c r="A886" s="3" t="s">
         <v>2140</v>
       </c>
@@ -31586,7 +31586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="18.75">
       <c r="A887" s="3" t="s">
         <v>2144</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="18.75">
       <c r="A888" s="3" t="s">
         <v>2148</v>
       </c>
@@ -31642,7 +31642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="18.75">
       <c r="A889" s="3" t="s">
         <v>2152</v>
       </c>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="18.75">
       <c r="A890" s="3" t="s">
         <v>2152</v>
       </c>
@@ -31700,7 +31700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="18.75">
       <c r="A891" s="3" t="s">
         <v>2158</v>
       </c>
@@ -31729,7 +31729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="18.75">
       <c r="A892" s="3" t="s">
         <v>2162</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="18.75">
       <c r="A893" s="3" t="s">
         <v>2162</v>
       </c>
